--- a/data/trans_dic/P04D$notiene-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.106938657099461</v>
+        <v>0.103077810814266</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4307135205741398</v>
+        <v>0.4359711711001845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1970693497381043</v>
+        <v>0.1939239643906053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1441115789597154</v>
+        <v>0.1454249975870189</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3905385400519955</v>
+        <v>0.385675888670139</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1762370461299219</v>
+        <v>0.1795350001971883</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1366330388927527</v>
+        <v>0.1368093352004028</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.430203286565298</v>
+        <v>0.4292713854396584</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1980989998417194</v>
+        <v>0.1990138926127883</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1906279189761428</v>
+        <v>0.1889168632168002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.55155023443003</v>
+        <v>0.554184430112091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.295798864063243</v>
+        <v>0.299571240089912</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2438274972058442</v>
+        <v>0.2422830852321741</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5009647950878542</v>
+        <v>0.5042223376326858</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2556791989341101</v>
+        <v>0.2560350927679628</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2025800784926819</v>
+        <v>0.2011869965106546</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5175172773700792</v>
+        <v>0.5129702560801421</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2663570723389375</v>
+        <v>0.2653914547255944</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05822740767788787</v>
+        <v>0.05718500828726318</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2287864528001245</v>
+        <v>0.2352220208353208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08079810533719708</v>
+        <v>0.08009125771997036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06329746783572515</v>
+        <v>0.0609431963250128</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1937460544581739</v>
+        <v>0.1945505462858033</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08389766905294316</v>
+        <v>0.08253720632058949</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06703229033127762</v>
+        <v>0.06657858581068944</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2246017365101409</v>
+        <v>0.2218976311029947</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08884147692523869</v>
+        <v>0.08922763972654811</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1126247952474206</v>
+        <v>0.1095706874662019</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3123773076607032</v>
+        <v>0.318062423705917</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1467559026075323</v>
+        <v>0.1461520987546376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1178067196004858</v>
+        <v>0.1115735227228225</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2721579593015109</v>
+        <v>0.2686995408240824</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1284901740657055</v>
+        <v>0.1269473724410262</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1058735408153035</v>
+        <v>0.1045083111210905</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2784558123896791</v>
+        <v>0.2770920822767028</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1291049295522401</v>
+        <v>0.128506650382736</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.01949981307922124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04431204282638476</v>
+        <v>0.04431204282638475</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.009334422143269983</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002889487342411377</v>
+        <v>0.002873518815155057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008463322997936068</v>
+        <v>0.008537274257586887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02610273635148049</v>
+        <v>0.02452649148484672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0</v>
+        <v>0.002838349534567073</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002643255951074649</v>
+        <v>0.002659095639243209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01682685109560634</v>
+        <v>0.01649875779457939</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004296988414942456</v>
+        <v>0.004276058533231346</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006765509180583473</v>
+        <v>0.006629512462703695</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02355265727958298</v>
+        <v>0.02310102549189026</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02619579700913217</v>
+        <v>0.02321653686456782</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03904537405631871</v>
+        <v>0.04102066972348532</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07310248996263068</v>
+        <v>0.07553210320041767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02489451277738432</v>
+        <v>0.02523249497104443</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02242145907815453</v>
+        <v>0.02341499483614248</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04647154986338058</v>
+        <v>0.04864577124855864</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01991171082952066</v>
+        <v>0.01950028223737568</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02519974874493357</v>
+        <v>0.0238609655416482</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05021193923479624</v>
+        <v>0.05080696163837956</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01118556732145594</v>
+        <v>0.01152414784330064</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02320479702613691</v>
+        <v>0.0246391618180747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01928669620641349</v>
+        <v>0.01922434733360647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01527478027752741</v>
+        <v>0.0138079855994019</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02964210191281187</v>
+        <v>0.03173357161480489</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03401135717346229</v>
+        <v>0.03434136774217042</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01613274677784226</v>
+        <v>0.01656714450433983</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03127452714108433</v>
+        <v>0.03082656108241396</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03354394585277875</v>
+        <v>0.03322549293479945</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05962879223422795</v>
+        <v>0.05310039369230912</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06452483004390046</v>
+        <v>0.06972082012861151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08065823390234361</v>
+        <v>0.07690113969367739</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04824743444154062</v>
+        <v>0.04834207502692757</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07361586449260955</v>
+        <v>0.07519266932252565</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08501945076815126</v>
+        <v>0.080926970048896</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04508192310654745</v>
+        <v>0.04294752987974155</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06231664292262472</v>
+        <v>0.06101989815373222</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0702371305584459</v>
+        <v>0.07669454026380616</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01999608389793302</v>
+        <v>0.0204066147517182</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004435681870643063</v>
+        <v>0.004389313721164952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003514616147687816</v>
+        <v>0.003563117812270948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03217578537502657</v>
+        <v>0.0283880366903712</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008223187873727939</v>
+        <v>0.008280688786262379</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03213496361579184</v>
+        <v>0.03230068184469538</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.00869381679552177</v>
+        <v>0.006978477008664871</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00302936779467925</v>
+        <v>0.003072903526235086</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07936705030411272</v>
+        <v>0.08209239120100204</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03824163577709216</v>
+        <v>0.03757067766003985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03881341912830864</v>
+        <v>0.03877478435446926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09802188509752456</v>
+        <v>0.09424443878142043</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04732055950719766</v>
+        <v>0.04797646216612222</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01180235024457573</v>
+        <v>0.01314802798130393</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07331892461941346</v>
+        <v>0.07659462224471331</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03403705644370381</v>
+        <v>0.03341539820762754</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02248892941457548</v>
+        <v>0.02124512049806654</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.3451850771159261</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.02080818684863974</v>
+        <v>0.02080818684863973</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.007192425131337376</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2878672060092267</v>
+        <v>0.2902751847645216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006455299807591837</v>
+        <v>0.008371346974870977</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2853806559703362</v>
+        <v>0.286082770523319</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.009562499141679216</v>
+        <v>0.01063257822095701</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.001767784851657865</v>
+        <v>0.001764476720891746</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3028319559081881</v>
+        <v>0.3075941103219602</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01220142444776977</v>
+        <v>0.01237441730986222</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02448715956848536</v>
+        <v>0.02311985280904068</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4069908880702598</v>
+        <v>0.4057652520478873</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04373056502185713</v>
+        <v>0.05015655621992524</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02634004228441153</v>
+        <v>0.02262982283026354</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4030509489787283</v>
+        <v>0.4064336759759092</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03876646472471217</v>
+        <v>0.04020536667172807</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01800031893849867</v>
+        <v>0.01680914077773582</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3898941307818554</v>
+        <v>0.3908685362931635</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03516487057622272</v>
+        <v>0.0347158677927668</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.2008947359520644</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3372605133804629</v>
+        <v>0.3372605133804628</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.02501150061954862</v>
@@ -1309,7 +1309,7 @@
         <v>0.1981094689391977</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3480211680270196</v>
+        <v>0.3480211680270195</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.02140400782244796</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.009430928727486987</v>
+        <v>0.009557663636334878</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1706105949188289</v>
+        <v>0.1696478685539729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2961276099636049</v>
+        <v>0.3024073407369312</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01508742428063042</v>
+        <v>0.01471933989227726</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.169117070732381</v>
+        <v>0.1687061768556305</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3153083727083296</v>
+        <v>0.3150919120137223</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01396052408517744</v>
+        <v>0.01479898327074811</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1765513280545981</v>
+        <v>0.1780153662590047</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3167708492793256</v>
+        <v>0.3165838309180706</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02978549355314334</v>
+        <v>0.03151574656612993</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2328700106694444</v>
+        <v>0.2337858187972024</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.379581002045272</v>
+        <v>0.3851227250716481</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0405451947472578</v>
+        <v>0.03973327888577651</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2364230635054885</v>
+        <v>0.2314823179048223</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3806543960454086</v>
+        <v>0.3803894844273512</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03014981694521924</v>
+        <v>0.03078783963659607</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2217803281547221</v>
+        <v>0.2220411304582629</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3711045060759646</v>
+        <v>0.3715325206370904</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.01044532702575792</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.03009330510829828</v>
+        <v>0.03009330510829827</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.02302112222081243</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01899420148880034</v>
+        <v>0.01896155276074238</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002619013046175583</v>
+        <v>0.002625238015107293</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01353160467742242</v>
+        <v>0.01358045614633236</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.009971294939564649</v>
+        <v>0.009989277413670174</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.005024884949631717</v>
+        <v>0.005145778931752699</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01885288274973315</v>
+        <v>0.02033695765476837</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01624924536795621</v>
+        <v>0.01645461381827229</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.004652495037333563</v>
+        <v>0.005065409167483543</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01892074033369772</v>
+        <v>0.01913650655913248</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04242764093070513</v>
+        <v>0.04327148294377154</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01397822647186746</v>
+        <v>0.01523795934777987</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03743848781646855</v>
+        <v>0.03830322724868913</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02841434425955141</v>
+        <v>0.02844298360044304</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0192455924662398</v>
+        <v>0.02087052360050004</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04391649716198801</v>
+        <v>0.04311719442809826</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03119671769888079</v>
+        <v>0.03153609965075402</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01433456877380797</v>
+        <v>0.0142872898753604</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0369985874862235</v>
+        <v>0.03696483251643707</v>
       </c>
     </row>
     <row r="28">
@@ -1527,7 +1527,7 @@
         <v>0.1452357703090898</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.1223639378106835</v>
+        <v>0.1223639378106836</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.04326075731441438</v>
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03384566356550287</v>
+        <v>0.03517308860647481</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1115654676099222</v>
+        <v>0.1108409782948853</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03721902064283099</v>
+        <v>0.03864264193462147</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1130635060993891</v>
+        <v>0.1132197684233264</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03810043427001802</v>
+        <v>0.03827860488532456</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1145455784889667</v>
+        <v>0.1161558971256658</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04904729460277674</v>
+        <v>0.05049322007376019</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1375324888667868</v>
+        <v>0.1359993340278883</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05217069665148352</v>
+        <v>0.05265405878929837</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1322159657464407</v>
+        <v>0.1329285740516338</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04819640019110853</v>
+        <v>0.04829319777385219</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1310330881299298</v>
+        <v>0.1317008111128416</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31327</v>
+        <v>30196</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>126527</v>
+        <v>128071</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>62835</v>
+        <v>61832</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>41233</v>
+        <v>41609</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>112750</v>
+        <v>111346</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>55702</v>
+        <v>56744</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>79119</v>
+        <v>79221</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>250578</v>
+        <v>250035</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>125774</v>
+        <v>126355</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55842</v>
+        <v>55341</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>162024</v>
+        <v>162798</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>94314</v>
+        <v>95517</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>69764</v>
+        <v>69322</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>144630</v>
+        <v>145571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>80810</v>
+        <v>80923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>117306</v>
+        <v>116499</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>301435</v>
+        <v>298787</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>169112</v>
+        <v>168499</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29323</v>
+        <v>28798</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>114982</v>
+        <v>118217</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42875</v>
+        <v>42500</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33020</v>
+        <v>31791</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>101345</v>
+        <v>101766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45850</v>
+        <v>45106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>68725</v>
+        <v>68260</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>230365</v>
+        <v>227591</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>95695</v>
+        <v>96111</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56718</v>
+        <v>55180</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>156993</v>
+        <v>159850</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77876</v>
+        <v>77555</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>61455</v>
+        <v>58203</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>142361</v>
+        <v>140552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70219</v>
+        <v>69376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>108547</v>
+        <v>107148</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>285601</v>
+        <v>284202</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>139064</v>
+        <v>138420</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2696</v>
+        <v>2720</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8220</v>
+        <v>7724</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5976</v>
+        <v>5860</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2858</v>
+        <v>2844</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4431</v>
+        <v>4341</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15782</v>
+        <v>15479</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8489</v>
+        <v>7523</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12438</v>
+        <v>13068</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23021</v>
+        <v>23786</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8490</v>
+        <v>8605</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7541</v>
+        <v>7875</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16505</v>
+        <v>17277</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13243</v>
+        <v>12969</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16503</v>
+        <v>15626</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>33646</v>
+        <v>34044</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4172</v>
+        <v>4299</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8585</v>
+        <v>9116</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7197</v>
+        <v>7173</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5941</v>
+        <v>5371</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11480</v>
+        <v>12290</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14233</v>
+        <v>14371</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12293</v>
+        <v>12624</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23683</v>
+        <v>23343</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>26554</v>
+        <v>26302</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22243</v>
+        <v>19807</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23872</v>
+        <v>25794</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30097</v>
+        <v>28695</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18766</v>
+        <v>18803</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28510</v>
+        <v>29121</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>35579</v>
+        <v>33866</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34351</v>
+        <v>32725</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47189</v>
+        <v>46207</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>55601</v>
+        <v>60713</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4252</v>
+        <v>4339</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7066</v>
+        <v>6234</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1797</v>
+        <v>1810</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13889</v>
+        <v>13961</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3737</v>
+        <v>2999</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1315</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16875</v>
+        <v>17454</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8077</v>
+        <v>7936</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7983</v>
+        <v>7975</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21525</v>
+        <v>20695</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10344</v>
+        <v>10487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2697</v>
+        <v>3004</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>31689</v>
+        <v>33105</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14629</v>
+        <v>14362</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>9764</v>
+        <v>9224</v>
       </c>
     </row>
     <row r="24">
@@ -2562,28 +2562,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>75744</v>
+        <v>76378</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1747</v>
+        <v>2266</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>77942</v>
+        <v>78133</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2522</v>
+        <v>2804</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>162390</v>
+        <v>164944</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6521</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6709</v>
+        <v>6334</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>107089</v>
+        <v>106766</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11838</v>
+        <v>13578</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7350</v>
+        <v>6315</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>110079</v>
+        <v>111003</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10225</v>
+        <v>10604</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9955</v>
+        <v>9296</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>209076</v>
+        <v>209599</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>18794</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6251</v>
+        <v>6335</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>112016</v>
+        <v>111384</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>210945</v>
+        <v>215418</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>10468</v>
+        <v>10213</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>116910</v>
+        <v>116626</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>242120</v>
+        <v>241953</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>18939</v>
+        <v>20077</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>237965</v>
+        <v>239938</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>468893</v>
+        <v>468616</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19741</v>
+        <v>20888</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>152893</v>
+        <v>153494</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>270393</v>
+        <v>274340</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>28132</v>
+        <v>27569</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>163438</v>
+        <v>160022</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>292298</v>
+        <v>292094</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>40902</v>
+        <v>41768</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>298927</v>
+        <v>299279</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>549319</v>
+        <v>549952</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>14753</v>
+        <v>14727</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10767</v>
+        <v>10806</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8215</v>
+        <v>8230</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4151</v>
+        <v>4251</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>15673</v>
+        <v>16907</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>26008</v>
+        <v>26336</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7466</v>
+        <v>8129</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>30785</v>
+        <v>31136</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>32953</v>
+        <v>33609</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10883</v>
+        <v>11864</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>29791</v>
+        <v>30479</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>23409</v>
+        <v>23433</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>15900</v>
+        <v>17243</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>36509</v>
+        <v>35845</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>49932</v>
+        <v>50475</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23003</v>
+        <v>22928</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>60199</v>
+        <v>60144</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>115741</v>
+        <v>120281</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>392931</v>
+        <v>390380</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>132280</v>
+        <v>137340</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>421460</v>
+        <v>422043</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>265704</v>
+        <v>266947</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>830412</v>
+        <v>842087</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>167726</v>
+        <v>172671</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>484387</v>
+        <v>478987</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>185420</v>
+        <v>187138</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>492854</v>
+        <v>495510</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>336111</v>
+        <v>336786</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>949941</v>
+        <v>954781</v>
       </c>
     </row>
     <row r="40">
